--- a/doc/H266_fields.xlsx
+++ b/doc/H266_fields.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>Field</t>
   </si>
@@ -374,6 +374,93 @@
   </si>
   <si>
     <t>sps_log2_max_pic_order_cnt_lsb_minus4</t>
+  </si>
+  <si>
+    <t>sps_ladf_qp_offset[</t>
+  </si>
+  <si>
+    <t>Min( 6, CtbLog2SizeY ) − MinCbLog2SizeY
+4</t>
+  </si>
+  <si>
+    <t>sps_max_mtt_hierarchy_depth_intra_slice_chroma</t>
+  </si>
+  <si>
+    <t>sps_log2_diff_max_bt_min_qt_intra_slice_chroma</t>
+  </si>
+  <si>
+    <t>Min( 6, CtbLog2SizeY ) − MinQtLog2SizeIntraC</t>
+  </si>
+  <si>
+    <r>
+      <t>MaxPicOrderCntLsb = 
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( sps_log2_max_pic_order_cnt_lsb_minus4 + 4 )</t>
+    </r>
+  </si>
+  <si>
+    <t>sps_poc_msb_cycle_len_minus1</t>
+  </si>
+  <si>
+    <t>32 − sps_log2_max_pic_order_cnt_lsb_minus4 − 5</t>
+  </si>
+  <si>
+    <t>ph_max_mtt_hierarchy_depth_inter_slice</t>
+  </si>
+  <si>
+    <t>2*( CtbLog2SizeY − MinCbLog2SizeY )=
+10</t>
+  </si>
+  <si>
+    <t>ph_cu_qp_delta_subdiv_inter_slice</t>
+  </si>
+  <si>
+    <t>2 * ( CtbLog2SizeY − MinQtLog2SizeInterY + ph_max_mtt_hierarchy_depth_inter_slice ) =
+15</t>
+  </si>
+  <si>
+    <t>BitDepth = 8 + sps_bitdepth_minus8</t>
+  </si>
+  <si>
+    <t>sps_bitdepth_minus8</t>
+  </si>
+  <si>
+    <t>QpBdOffset = 6 * sps_bitdepth_minus8</t>
+  </si>
+  <si>
+    <t>ph_qp_delta</t>
+  </si>
+  <si>
+    <t>−QpBdOffset = 
+-12</t>
+  </si>
+  <si>
+    <t>MinQtLog2SizeInterY = 
+sps_log2_diff_min_qt_min_cb_inter_slice + MinCbLog2SizeY</t>
+  </si>
+  <si>
+    <t>sps_log2_diff_min_qt_min_cb_inter_slice</t>
+  </si>
+  <si>
+    <t>Min( 6, CtbLog2SizeY ) − MinCbLog2SizeY =
+4(max)</t>
+  </si>
+  <si>
+    <t>ph_log2_diff_max_tt_min_qt_inter_slice</t>
+  </si>
+  <si>
+    <t>Min( 6, CtbLog2SizeY ) − MinQtLog2SizeInterY
+= 4</t>
   </si>
 </sst>
 </file>
@@ -383,7 +470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +514,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -772,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L30"/>
+  <dimension ref="B2:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1238,6 +1333,206 @@
         <v>12</v>
       </c>
     </row>
+    <row r="31" spans="2:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32">
+        <v>-63</v>
+      </c>
+      <c r="E32">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/doc/H266_fields.xlsx
+++ b/doc/H266_fields.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>Field</t>
   </si>
@@ -461,6 +461,14 @@
   <si>
     <t>Min( 6, CtbLog2SizeY ) − MinQtLog2SizeInterY
 = 4</t>
+  </si>
+  <si>
+    <t>sps_max_sublayers_minus1</t>
+  </si>
+  <si>
+    <t>firstSubLayer = 
+sps_sublayer_cpb_params_present_flag ? 0 : sps_max_sublayers_minus1
+firstSubLayer = vps_sublayer_cpb_params_present_flag ? 0 : vps_hrd_max_tid[ i ]</t>
   </si>
 </sst>
 </file>
@@ -867,10 +875,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L46"/>
+  <dimension ref="B1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -886,238 +895,255 @@
     <col min="12" max="12" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+      <c r="E3">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>17</v>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="I4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>11</v>
+      <c r="C5" t="s">
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>32</v>
-      </c>
-      <c r="E5">
-        <v>128</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="4">
         <v>2</v>
       </c>
       <c r="L5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="4">
         <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="4">
-        <v>2</v>
       </c>
       <c r="L6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="4">
-        <v>3</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="E8">
-        <v>64</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>256</v>
-      </c>
-      <c r="E9">
-        <v>1024</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:12" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
+    <row r="11" spans="2:12" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
+    <row r="12" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
       <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
       <c r="G14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1128,13 +1154,13 @@
     </row>
     <row r="16" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1143,15 +1169,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1160,15 +1186,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1179,13 +1205,13 @@
     </row>
     <row r="19" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1194,204 +1220,204 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>43</v>
+      <c r="E20">
+        <v>3</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8</v>
+      </c>
+      <c r="F26">
         <v>4</v>
-      </c>
-      <c r="E22">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>8</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="1">
-        <v>5</v>
+      <c r="E28" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>57</v>
+      <c r="E29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="B31" s="1" t="s">
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31">
+        <v>-63</v>
+      </c>
+      <c r="E31">
         <v>63</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>65536</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>-63</v>
-      </c>
-      <c r="E32">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1408,129 +1434,134 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="E37" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>69</v>
+      <c r="E39" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>12</v>
+        <v>73</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="1">
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="1" t="s">
+    <row r="44" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B44" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
       <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>79</v>
+      <c r="E46" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="B47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
